--- a/resources/experiment 1/metrics/MAPE/upto time/Angina (UPTO).xlsx
+++ b/resources/experiment 1/metrics/MAPE/upto time/Angina (UPTO).xlsx
@@ -478,45 +478,45 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>11990853669408.65</v>
+        <v>38770156136267.39</v>
       </c>
       <c r="C3" t="n">
-        <v>11990853669408.65</v>
+        <v>45928845474583.34</v>
       </c>
       <c r="D3" t="n">
-        <v>11990853669408.65</v>
+        <v>15556388594436.73</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>GradientBoostingRegressor</t>
+          <t>DecisionTreeRegressor</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>26136691410385.73</v>
+        <v>28061926624961.07</v>
       </c>
       <c r="C4" t="n">
-        <v>26232699083531.02</v>
+        <v>16200905954044.45</v>
       </c>
       <c r="D4" t="n">
-        <v>26232699083531.02</v>
+        <v>11589858195980.47</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>AdaBoostRegressor</t>
+          <t>MLPRegressor</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>23695350696267.73</v>
+        <v>125166664809328</v>
       </c>
       <c r="C5" t="n">
-        <v>23875989319118.56</v>
+        <v>107286479372162.4</v>
       </c>
       <c r="D5" t="n">
-        <v>23875989319118.56</v>
+        <v>127533652386852.7</v>
       </c>
     </row>
   </sheetData>
